--- a/Additionals/WoolworthsDemands_with_medain_variance.xlsx
+++ b/Additionals/WoolworthsDemands_with_medain_variance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoma\Desktop\ENGSCI_Group_6_OR-sebastian_development\Additionals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376496FD-54D5-4C59-8516-7A367D132023}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26E69E6-28DA-4C89-908C-5229ED50B57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WoolworthsDemands" sheetId="1" r:id="rId1"/>
@@ -19717,8 +19717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19744,8 +19744,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>TRIMMEAN(Transposed_weekday!$B2:$U2, 0.2)</f>
-        <v>7.0625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B2:$U2, 0.4)</f>
+        <v>7</v>
       </c>
       <c r="C2">
         <f>VAR(Transposed_weekday!$B2:$U2)</f>
@@ -19757,8 +19757,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>TRIMMEAN(Transposed_weekday!$B3:$U3, 0.2)</f>
-        <v>7.9375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B3:$U3, 0.4)</f>
+        <v>7.833333333333333</v>
       </c>
       <c r="C3">
         <f>VAR(Transposed_weekday!$B3:$U3)</f>
@@ -19770,8 +19770,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>TRIMMEAN(Transposed_weekday!$B4:$U4, 0.2)</f>
-        <v>7.6875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B4:$U4, 0.4)</f>
+        <v>7.666666666666667</v>
       </c>
       <c r="C4">
         <f>VAR(Transposed_weekday!$B4:$U4)</f>
@@ -19783,8 +19783,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>TRIMMEAN(Transposed_weekday!$B5:$U5, 0.2)</f>
-        <v>8</v>
+        <f>TRIMMEAN(Transposed_weekday!$B5:$U5, 0.4)</f>
+        <v>8.0833333333333339</v>
       </c>
       <c r="C5">
         <f>VAR(Transposed_weekday!$B5:$U5)</f>
@@ -19796,8 +19796,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>TRIMMEAN(Transposed_weekday!$B6:$U6, 0.2)</f>
-        <v>7.3125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B6:$U6, 0.4)</f>
+        <v>7.416666666666667</v>
       </c>
       <c r="C6">
         <f>VAR(Transposed_weekday!$B6:$U6)</f>
@@ -19809,8 +19809,8 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>TRIMMEAN(Transposed_weekday!$B7:$U7, 0.2)</f>
-        <v>8.25</v>
+        <f>TRIMMEAN(Transposed_weekday!$B7:$U7, 0.4)</f>
+        <v>8.1666666666666661</v>
       </c>
       <c r="C7">
         <f>VAR(Transposed_weekday!$B7:$U7)</f>
@@ -19822,8 +19822,8 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>TRIMMEAN(Transposed_weekday!$B8:$U8, 0.2)</f>
-        <v>7.9375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B8:$U8, 0.4)</f>
+        <v>7.833333333333333</v>
       </c>
       <c r="C8">
         <f>VAR(Transposed_weekday!$B8:$U8)</f>
@@ -19835,8 +19835,8 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>TRIMMEAN(Transposed_weekday!$B9:$U9, 0.2)</f>
-        <v>7.0625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B9:$U9, 0.4)</f>
+        <v>7.083333333333333</v>
       </c>
       <c r="C9">
         <f>VAR(Transposed_weekday!$B9:$U9)</f>
@@ -19848,8 +19848,8 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>TRIMMEAN(Transposed_weekday!$B10:$U10, 0.2)</f>
-        <v>8.375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B10:$U10, 0.4)</f>
+        <v>8.4166666666666661</v>
       </c>
       <c r="C10">
         <f>VAR(Transposed_weekday!$B10:$U10)</f>
@@ -19861,8 +19861,8 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>TRIMMEAN(Transposed_weekday!$B11:$U11, 0.2)</f>
-        <v>8.75</v>
+        <f>TRIMMEAN(Transposed_weekday!$B11:$U11, 0.4)</f>
+        <v>8.9166666666666661</v>
       </c>
       <c r="C11">
         <f>VAR(Transposed_weekday!$B11:$U11)</f>
@@ -19874,8 +19874,8 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>TRIMMEAN(Transposed_weekday!$B12:$U12, 0.2)</f>
-        <v>8.3125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B12:$U12, 0.4)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C12">
         <f>VAR(Transposed_weekday!$B12:$U12)</f>
@@ -19887,7 +19887,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>TRIMMEAN(Transposed_weekday!$B13:$U13, 0.2)</f>
+        <f>TRIMMEAN(Transposed_weekday!$B13:$U13, 0.4)</f>
         <v>7.25</v>
       </c>
       <c r="C13">
@@ -19900,8 +19900,8 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>TRIMMEAN(Transposed_weekday!$B14:$U14, 0.2)</f>
-        <v>7.8125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B14:$U14, 0.4)</f>
+        <v>7.75</v>
       </c>
       <c r="C14">
         <f>VAR(Transposed_weekday!$B14:$U14)</f>
@@ -19913,8 +19913,8 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>TRIMMEAN(Transposed_weekday!$B15:$U15, 0.2)</f>
-        <v>7.5625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B15:$U15, 0.4)</f>
+        <v>7.416666666666667</v>
       </c>
       <c r="C15">
         <f>VAR(Transposed_weekday!$B15:$U15)</f>
@@ -19926,8 +19926,8 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>TRIMMEAN(Transposed_weekday!$B16:$U16, 0.2)</f>
-        <v>8.75</v>
+        <f>TRIMMEAN(Transposed_weekday!$B16:$U16, 0.4)</f>
+        <v>8.6666666666666661</v>
       </c>
       <c r="C16">
         <f>VAR(Transposed_weekday!$B16:$U16)</f>
@@ -19939,7 +19939,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>TRIMMEAN(Transposed_weekday!$B17:$U17, 0.2)</f>
+        <f>TRIMMEAN(Transposed_weekday!$B17:$U17, 0.4)</f>
         <v>8.75</v>
       </c>
       <c r="C17">
@@ -19952,8 +19952,8 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>TRIMMEAN(Transposed_weekday!$B18:$U18, 0.2)</f>
-        <v>7.875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B18:$U18, 0.4)</f>
+        <v>7.666666666666667</v>
       </c>
       <c r="C18">
         <f>VAR(Transposed_weekday!$B18:$U18)</f>
@@ -19965,8 +19965,8 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>TRIMMEAN(Transposed_weekday!$B19:$U19, 0.2)</f>
-        <v>8.3125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B19:$U19, 0.4)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C19">
         <f>VAR(Transposed_weekday!$B19:$U19)</f>
@@ -19978,8 +19978,8 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>TRIMMEAN(Transposed_weekday!$B20:$U20, 0.2)</f>
-        <v>8.0625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B20:$U20, 0.4)</f>
+        <v>7.916666666666667</v>
       </c>
       <c r="C20">
         <f>VAR(Transposed_weekday!$B20:$U20)</f>
@@ -19991,7 +19991,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>TRIMMEAN(Transposed_weekday!$B21:$U21, 0.2)</f>
+        <f>TRIMMEAN(Transposed_weekday!$B21:$U21, 0.4)</f>
         <v>7</v>
       </c>
       <c r="C21">
@@ -20004,8 +20004,8 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>TRIMMEAN(Transposed_weekday!$B22:$U22, 0.2)</f>
-        <v>8.5625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B22:$U22, 0.4)</f>
+        <v>8.5833333333333339</v>
       </c>
       <c r="C22">
         <f>VAR(Transposed_weekday!$B22:$U22)</f>
@@ -20017,8 +20017,8 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>TRIMMEAN(Transposed_weekday!$B23:$U23, 0.2)</f>
-        <v>7.875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B23:$U23, 0.4)</f>
+        <v>7.833333333333333</v>
       </c>
       <c r="C23">
         <f>VAR(Transposed_weekday!$B23:$U23)</f>
@@ -20030,8 +20030,8 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>TRIMMEAN(Transposed_weekday!$B24:$U24, 0.2)</f>
-        <v>7.0625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B24:$U24, 0.4)</f>
+        <v>7.25</v>
       </c>
       <c r="C24">
         <f>VAR(Transposed_weekday!$B24:$U24)</f>
@@ -20043,8 +20043,8 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>TRIMMEAN(Transposed_weekday!$B25:$U25, 0.2)</f>
-        <v>7.625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B25:$U25, 0.4)</f>
+        <v>7.666666666666667</v>
       </c>
       <c r="C25">
         <f>VAR(Transposed_weekday!$B25:$U25)</f>
@@ -20056,8 +20056,8 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>TRIMMEAN(Transposed_weekday!$B26:$U26, 0.2)</f>
-        <v>8.375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B26:$U26, 0.4)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C26">
         <f>VAR(Transposed_weekday!$B26:$U26)</f>
@@ -20069,8 +20069,8 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>TRIMMEAN(Transposed_weekday!$B27:$U27, 0.2)</f>
-        <v>8</v>
+        <f>TRIMMEAN(Transposed_weekday!$B27:$U27, 0.4)</f>
+        <v>7.916666666666667</v>
       </c>
       <c r="C27">
         <f>VAR(Transposed_weekday!$B27:$U27)</f>
@@ -20082,8 +20082,8 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>TRIMMEAN(Transposed_weekday!$B28:$U28, 0.2)</f>
-        <v>8.0625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B28:$U28, 0.4)</f>
+        <v>8</v>
       </c>
       <c r="C28">
         <f>VAR(Transposed_weekday!$B28:$U28)</f>
@@ -20095,8 +20095,8 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>TRIMMEAN(Transposed_weekday!$B29:$U29, 0.2)</f>
-        <v>8.125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B29:$U29, 0.4)</f>
+        <v>8.1666666666666661</v>
       </c>
       <c r="C29">
         <f>VAR(Transposed_weekday!$B29:$U29)</f>
@@ -20108,8 +20108,8 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>TRIMMEAN(Transposed_weekday!$B30:$U30, 0.2)</f>
-        <v>4.25</v>
+        <f>TRIMMEAN(Transposed_weekday!$B30:$U30, 0.4)</f>
+        <v>4.166666666666667</v>
       </c>
       <c r="C30">
         <f>VAR(Transposed_weekday!$B30:$U30)</f>
@@ -20121,8 +20121,8 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>TRIMMEAN(Transposed_weekday!$B31:$U31, 0.2)</f>
-        <v>3.5625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B31:$U31, 0.4)</f>
+        <v>3.5</v>
       </c>
       <c r="C31">
         <f>VAR(Transposed_weekday!$B31:$U31)</f>
@@ -20134,8 +20134,8 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>TRIMMEAN(Transposed_weekday!$B32:$U32, 0.2)</f>
-        <v>8.25</v>
+        <f>TRIMMEAN(Transposed_weekday!$B32:$U32, 0.4)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C32">
         <f>VAR(Transposed_weekday!$B32:$U32)</f>
@@ -20147,8 +20147,8 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>TRIMMEAN(Transposed_weekday!$B33:$U33, 0.2)</f>
-        <v>7.625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B33:$U33, 0.4)</f>
+        <v>7.583333333333333</v>
       </c>
       <c r="C33">
         <f>VAR(Transposed_weekday!$B33:$U33)</f>
@@ -20160,7 +20160,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>TRIMMEAN(Transposed_weekday!$B34:$U34, 0.2)</f>
+        <f>TRIMMEAN(Transposed_weekday!$B34:$U34, 0.4)</f>
         <v>8</v>
       </c>
       <c r="C34">
@@ -20173,8 +20173,8 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>TRIMMEAN(Transposed_weekday!$B35:$U35, 0.2)</f>
-        <v>8.5625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B35:$U35, 0.4)</f>
+        <v>8.4166666666666661</v>
       </c>
       <c r="C35">
         <f>VAR(Transposed_weekday!$B35:$U35)</f>
@@ -20186,8 +20186,8 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>TRIMMEAN(Transposed_weekday!$B36:$U36, 0.2)</f>
-        <v>7.5</v>
+        <f>TRIMMEAN(Transposed_weekday!$B36:$U36, 0.4)</f>
+        <v>7.416666666666667</v>
       </c>
       <c r="C36">
         <f>VAR(Transposed_weekday!$B36:$U36)</f>
@@ -20199,8 +20199,8 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>TRIMMEAN(Transposed_weekday!$B37:$U37, 0.2)</f>
-        <v>7.3125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B37:$U37, 0.4)</f>
+        <v>7.166666666666667</v>
       </c>
       <c r="C37">
         <f>VAR(Transposed_weekday!$B37:$U37)</f>
@@ -20212,8 +20212,8 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>TRIMMEAN(Transposed_weekday!$B38:$U38, 0.2)</f>
-        <v>7.875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B38:$U38, 0.4)</f>
+        <v>7.916666666666667</v>
       </c>
       <c r="C38">
         <f>VAR(Transposed_weekday!$B38:$U38)</f>
@@ -20225,8 +20225,8 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>TRIMMEAN(Transposed_weekday!$B39:$U39, 0.2)</f>
-        <v>7.6875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B39:$U39, 0.4)</f>
+        <v>7.5</v>
       </c>
       <c r="C39">
         <f>VAR(Transposed_weekday!$B39:$U39)</f>
@@ -20238,8 +20238,8 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>TRIMMEAN(Transposed_weekday!$B40:$U40, 0.2)</f>
-        <v>7.625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B40:$U40, 0.4)</f>
+        <v>7.666666666666667</v>
       </c>
       <c r="C40">
         <f>VAR(Transposed_weekday!$B40:$U40)</f>
@@ -20251,8 +20251,8 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>TRIMMEAN(Transposed_weekday!$B41:$U41, 0.2)</f>
-        <v>6.9375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B41:$U41, 0.4)</f>
+        <v>6.75</v>
       </c>
       <c r="C41">
         <f>VAR(Transposed_weekday!$B41:$U41)</f>
@@ -20264,8 +20264,8 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>TRIMMEAN(Transposed_weekday!$B42:$U42, 0.2)</f>
-        <v>8.6875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B42:$U42, 0.4)</f>
+        <v>8.5</v>
       </c>
       <c r="C42">
         <f>VAR(Transposed_weekday!$B42:$U42)</f>
@@ -20277,8 +20277,8 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>TRIMMEAN(Transposed_weekday!$B43:$U43, 0.2)</f>
-        <v>8.75</v>
+        <f>TRIMMEAN(Transposed_weekday!$B43:$U43, 0.4)</f>
+        <v>8.9166666666666661</v>
       </c>
       <c r="C43">
         <f>VAR(Transposed_weekday!$B43:$U43)</f>
@@ -20290,8 +20290,8 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>TRIMMEAN(Transposed_weekday!$B44:$U44, 0.2)</f>
-        <v>8.0625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B44:$U44, 0.4)</f>
+        <v>8</v>
       </c>
       <c r="C44">
         <f>VAR(Transposed_weekday!$B44:$U44)</f>
@@ -20303,8 +20303,8 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>TRIMMEAN(Transposed_weekday!$B45:$U45, 0.2)</f>
-        <v>8.5</v>
+        <f>TRIMMEAN(Transposed_weekday!$B45:$U45, 0.4)</f>
+        <v>8.3333333333333339</v>
       </c>
       <c r="C45">
         <f>VAR(Transposed_weekday!$B45:$U45)</f>
@@ -20316,8 +20316,8 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>TRIMMEAN(Transposed_weekday!$B46:$U46, 0.2)</f>
-        <v>7.25</v>
+        <f>TRIMMEAN(Transposed_weekday!$B46:$U46, 0.4)</f>
+        <v>7.166666666666667</v>
       </c>
       <c r="C46">
         <f>VAR(Transposed_weekday!$B46:$U46)</f>
@@ -20329,8 +20329,8 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>TRIMMEAN(Transposed_weekday!$B47:$U47, 0.2)</f>
-        <v>6.6875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B47:$U47, 0.4)</f>
+        <v>6.416666666666667</v>
       </c>
       <c r="C47">
         <f>VAR(Transposed_weekday!$B47:$U47)</f>
@@ -20342,8 +20342,8 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>TRIMMEAN(Transposed_weekday!$B48:$U48, 0.2)</f>
-        <v>8.5</v>
+        <f>TRIMMEAN(Transposed_weekday!$B48:$U48, 0.4)</f>
+        <v>8.6666666666666661</v>
       </c>
       <c r="C48">
         <f>VAR(Transposed_weekday!$B48:$U48)</f>
@@ -20355,8 +20355,8 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>TRIMMEAN(Transposed_weekday!$B49:$U49, 0.2)</f>
-        <v>8.0625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B49:$U49, 0.4)</f>
+        <v>8.0833333333333339</v>
       </c>
       <c r="C49">
         <f>VAR(Transposed_weekday!$B49:$U49)</f>
@@ -20368,8 +20368,8 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>TRIMMEAN(Transposed_weekday!$B50:$U50, 0.2)</f>
-        <v>7.9375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B50:$U50, 0.4)</f>
+        <v>8.0833333333333339</v>
       </c>
       <c r="C50">
         <f>VAR(Transposed_weekday!$B50:$U50)</f>
@@ -20381,7 +20381,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>TRIMMEAN(Transposed_weekday!$B51:$U51, 0.2)</f>
+        <f>TRIMMEAN(Transposed_weekday!$B51:$U51, 0.4)</f>
         <v>7.5</v>
       </c>
       <c r="C51">
@@ -20394,8 +20394,8 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>TRIMMEAN(Transposed_weekday!$B52:$U52, 0.2)</f>
-        <v>7.5</v>
+        <f>TRIMMEAN(Transposed_weekday!$B52:$U52, 0.4)</f>
+        <v>7.333333333333333</v>
       </c>
       <c r="C52">
         <f>VAR(Transposed_weekday!$B52:$U52)</f>
@@ -20407,8 +20407,8 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>TRIMMEAN(Transposed_weekday!$B53:$U53, 0.2)</f>
-        <v>7.875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B53:$U53, 0.4)</f>
+        <v>7.916666666666667</v>
       </c>
       <c r="C53">
         <f>VAR(Transposed_weekday!$B53:$U53)</f>
@@ -20420,8 +20420,8 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>TRIMMEAN(Transposed_weekday!$B54:$U54, 0.2)</f>
-        <v>8.875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B54:$U54, 0.4)</f>
+        <v>8.75</v>
       </c>
       <c r="C54">
         <f>VAR(Transposed_weekday!$B54:$U54)</f>
@@ -20433,8 +20433,8 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>TRIMMEAN(Transposed_weekday!$B55:$U55, 0.2)</f>
-        <v>9.3125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B55:$U55, 0.4)</f>
+        <v>9.0833333333333339</v>
       </c>
       <c r="C55">
         <f>VAR(Transposed_weekday!$B55:$U55)</f>
@@ -20446,8 +20446,8 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>TRIMMEAN(Transposed_weekday!$B56:$U56, 0.2)</f>
-        <v>7.9375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B56:$U56, 0.4)</f>
+        <v>7.833333333333333</v>
       </c>
       <c r="C56">
         <f>VAR(Transposed_weekday!$B56:$U56)</f>
@@ -20459,7 +20459,7 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>TRIMMEAN(Transposed_weekday!$B57:$U57, 0.2)</f>
+        <f>TRIMMEAN(Transposed_weekday!$B57:$U57, 0.4)</f>
         <v>4</v>
       </c>
       <c r="C57">
@@ -20472,8 +20472,8 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>TRIMMEAN(Transposed_weekday!$B58:$U58, 0.2)</f>
-        <v>4.4375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B58:$U58, 0.4)</f>
+        <v>4.416666666666667</v>
       </c>
       <c r="C58">
         <f>VAR(Transposed_weekday!$B58:$U58)</f>
@@ -20485,8 +20485,8 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>TRIMMEAN(Transposed_weekday!$B59:$U59, 0.2)</f>
-        <v>4.5625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B59:$U59, 0.4)</f>
+        <v>4.583333333333333</v>
       </c>
       <c r="C59">
         <f>VAR(Transposed_weekday!$B59:$U59)</f>
@@ -20498,8 +20498,8 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>TRIMMEAN(Transposed_weekday!$B60:$U60, 0.2)</f>
-        <v>3.8125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B60:$U60, 0.4)</f>
+        <v>3.9166666666666665</v>
       </c>
       <c r="C60">
         <f>VAR(Transposed_weekday!$B60:$U60)</f>
@@ -20511,8 +20511,8 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f>TRIMMEAN(Transposed_weekday!$B61:$U61, 0.2)</f>
-        <v>4.6875</v>
+        <f>TRIMMEAN(Transposed_weekday!$B61:$U61, 0.4)</f>
+        <v>4.666666666666667</v>
       </c>
       <c r="C61">
         <f>VAR(Transposed_weekday!$B61:$U61)</f>
@@ -20524,8 +20524,8 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f>TRIMMEAN(Transposed_weekday!$B62:$U62, 0.2)</f>
-        <v>4.4375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B62:$U62, 0.4)</f>
+        <v>4.5</v>
       </c>
       <c r="C62">
         <f>VAR(Transposed_weekday!$B62:$U62)</f>
@@ -20537,8 +20537,8 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f>TRIMMEAN(Transposed_weekday!$B63:$U63, 0.2)</f>
-        <v>4.5625</v>
+        <f>TRIMMEAN(Transposed_weekday!$B63:$U63, 0.4)</f>
+        <v>4.5</v>
       </c>
       <c r="C63">
         <f>VAR(Transposed_weekday!$B63:$U63)</f>
@@ -20550,8 +20550,8 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f>TRIMMEAN(Transposed_weekday!$B64:$U64, 0.2)</f>
-        <v>4.9375</v>
+        <f>TRIMMEAN(Transposed_weekday!$B64:$U64, 0.4)</f>
+        <v>5</v>
       </c>
       <c r="C64">
         <f>VAR(Transposed_weekday!$B64:$U64)</f>
@@ -20563,8 +20563,8 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f>TRIMMEAN(Transposed_weekday!$B65:$U65, 0.2)</f>
-        <v>4.8125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B65:$U65, 0.4)</f>
+        <v>4.916666666666667</v>
       </c>
       <c r="C65">
         <f>VAR(Transposed_weekday!$B65:$U65)</f>
@@ -20576,8 +20576,8 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f>TRIMMEAN(Transposed_weekday!$B66:$U66, 0.2)</f>
-        <v>4.3125</v>
+        <f>TRIMMEAN(Transposed_weekday!$B66:$U66, 0.4)</f>
+        <v>4.166666666666667</v>
       </c>
       <c r="C66">
         <f>VAR(Transposed_weekday!$B66:$U66)</f>
@@ -20593,8 +20593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/Additionals/WoolworthsDemands_with_medain_variance.xlsx
+++ b/Additionals/WoolworthsDemands_with_medain_variance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thoma\Desktop\ENGSCI_Group_6_OR-sebastian_development\Additionals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26E69E6-28DA-4C89-908C-5229ED50B57D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1B90B4B-9476-43A1-9757-B1868A9D037A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13380,7 +13380,7 @@
   <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19718,7 +19718,7 @@
   <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -19744,8 +19744,8 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <f>TRIMMEAN(Transposed_weekday!$B2:$U2, 0.4)</f>
-        <v>7</v>
+        <f>HARMEAN(Transposed_weekday!$B2:$U2)</f>
+        <v>6.5073477628057663</v>
       </c>
       <c r="C2">
         <f>VAR(Transposed_weekday!$B2:$U2)</f>
@@ -19757,8 +19757,8 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>TRIMMEAN(Transposed_weekday!$B3:$U3, 0.4)</f>
-        <v>7.833333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B3:$U3)</f>
+        <v>7.5709461056457492</v>
       </c>
       <c r="C3">
         <f>VAR(Transposed_weekday!$B3:$U3)</f>
@@ -19770,8 +19770,8 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <f>TRIMMEAN(Transposed_weekday!$B4:$U4, 0.4)</f>
-        <v>7.666666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B4:$U4)</f>
+        <v>6.8338983050847455</v>
       </c>
       <c r="C4">
         <f>VAR(Transposed_weekday!$B4:$U4)</f>
@@ -19783,8 +19783,8 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <f>TRIMMEAN(Transposed_weekday!$B5:$U5, 0.4)</f>
-        <v>8.0833333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B5:$U5)</f>
+        <v>7.1145332050048111</v>
       </c>
       <c r="C5">
         <f>VAR(Transposed_weekday!$B5:$U5)</f>
@@ -19796,8 +19796,8 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <f>TRIMMEAN(Transposed_weekday!$B6:$U6, 0.4)</f>
-        <v>7.416666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B6:$U6)</f>
+        <v>6.5082644628099162</v>
       </c>
       <c r="C6">
         <f>VAR(Transposed_weekday!$B6:$U6)</f>
@@ -19809,8 +19809,8 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <f>TRIMMEAN(Transposed_weekday!$B7:$U7, 0.4)</f>
-        <v>8.1666666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B7:$U7)</f>
+        <v>7.7547138141330496</v>
       </c>
       <c r="C7">
         <f>VAR(Transposed_weekday!$B7:$U7)</f>
@@ -19822,8 +19822,8 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <f>TRIMMEAN(Transposed_weekday!$B8:$U8, 0.4)</f>
-        <v>7.833333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B8:$U8)</f>
+        <v>7.0488614257924231</v>
       </c>
       <c r="C8">
         <f>VAR(Transposed_weekday!$B8:$U8)</f>
@@ -19835,8 +19835,8 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>TRIMMEAN(Transposed_weekday!$B9:$U9, 0.4)</f>
-        <v>7.083333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B9:$U9)</f>
+        <v>6.2991410262236966</v>
       </c>
       <c r="C9">
         <f>VAR(Transposed_weekday!$B9:$U9)</f>
@@ -19848,8 +19848,8 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>TRIMMEAN(Transposed_weekday!$B10:$U10, 0.4)</f>
-        <v>8.4166666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B10:$U10)</f>
+        <v>7.295955296178005</v>
       </c>
       <c r="C10">
         <f>VAR(Transposed_weekday!$B10:$U10)</f>
@@ -19861,8 +19861,8 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>TRIMMEAN(Transposed_weekday!$B11:$U11, 0.4)</f>
-        <v>8.9166666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B11:$U11)</f>
+        <v>7.4718685269620506</v>
       </c>
       <c r="C11">
         <f>VAR(Transposed_weekday!$B11:$U11)</f>
@@ -19874,8 +19874,8 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <f>TRIMMEAN(Transposed_weekday!$B12:$U12, 0.4)</f>
-        <v>8.3333333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B12:$U12)</f>
+        <v>7.2547111030136371</v>
       </c>
       <c r="C12">
         <f>VAR(Transposed_weekday!$B12:$U12)</f>
@@ -19887,8 +19887,8 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <f>TRIMMEAN(Transposed_weekday!$B13:$U13, 0.4)</f>
-        <v>7.25</v>
+        <f>HARMEAN(Transposed_weekday!$B13:$U13)</f>
+        <v>6.5067132756018111</v>
       </c>
       <c r="C13">
         <f>VAR(Transposed_weekday!$B13:$U13)</f>
@@ -19900,8 +19900,8 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <f>TRIMMEAN(Transposed_weekday!$B14:$U14, 0.4)</f>
-        <v>7.75</v>
+        <f>HARMEAN(Transposed_weekday!$B14:$U14)</f>
+        <v>7.1823705450258455</v>
       </c>
       <c r="C14">
         <f>VAR(Transposed_weekday!$B14:$U14)</f>
@@ -19913,8 +19913,8 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <f>TRIMMEAN(Transposed_weekday!$B15:$U15, 0.4)</f>
-        <v>7.416666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B15:$U15)</f>
+        <v>6.8562100394504153</v>
       </c>
       <c r="C15">
         <f>VAR(Transposed_weekday!$B15:$U15)</f>
@@ -19926,8 +19926,8 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <f>TRIMMEAN(Transposed_weekday!$B16:$U16, 0.4)</f>
-        <v>8.6666666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B16:$U16)</f>
+        <v>8.0443425520183389</v>
       </c>
       <c r="C16">
         <f>VAR(Transposed_weekday!$B16:$U16)</f>
@@ -19939,8 +19939,8 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <f>TRIMMEAN(Transposed_weekday!$B17:$U17, 0.4)</f>
-        <v>8.75</v>
+        <f>HARMEAN(Transposed_weekday!$B17:$U17)</f>
+        <v>8.3389352793008769</v>
       </c>
       <c r="C17">
         <f>VAR(Transposed_weekday!$B17:$U17)</f>
@@ -19952,8 +19952,8 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <f>TRIMMEAN(Transposed_weekday!$B18:$U18, 0.4)</f>
-        <v>7.666666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B18:$U18)</f>
+        <v>7.298068247752771</v>
       </c>
       <c r="C18">
         <f>VAR(Transposed_weekday!$B18:$U18)</f>
@@ -19965,8 +19965,8 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <f>TRIMMEAN(Transposed_weekday!$B19:$U19, 0.4)</f>
-        <v>8.3333333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B19:$U19)</f>
+        <v>7.6863354037267078</v>
       </c>
       <c r="C19">
         <f>VAR(Transposed_weekday!$B19:$U19)</f>
@@ -19978,8 +19978,8 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <f>TRIMMEAN(Transposed_weekday!$B20:$U20, 0.4)</f>
-        <v>7.916666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B20:$U20)</f>
+        <v>7.561684193297598</v>
       </c>
       <c r="C20">
         <f>VAR(Transposed_weekday!$B20:$U20)</f>
@@ -19991,8 +19991,8 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <f>TRIMMEAN(Transposed_weekday!$B21:$U21, 0.4)</f>
-        <v>7</v>
+        <f>HARMEAN(Transposed_weekday!$B21:$U21)</f>
+        <v>6.6081027927101097</v>
       </c>
       <c r="C21">
         <f>VAR(Transposed_weekday!$B21:$U21)</f>
@@ -20004,8 +20004,8 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <f>TRIMMEAN(Transposed_weekday!$B22:$U22, 0.4)</f>
-        <v>8.5833333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B22:$U22)</f>
+        <v>8.1644674835061259</v>
       </c>
       <c r="C22">
         <f>VAR(Transposed_weekday!$B22:$U22)</f>
@@ -20017,8 +20017,8 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <f>TRIMMEAN(Transposed_weekday!$B23:$U23, 0.4)</f>
-        <v>7.833333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B23:$U23)</f>
+        <v>7.5449101796407181</v>
       </c>
       <c r="C23">
         <f>VAR(Transposed_weekday!$B23:$U23)</f>
@@ -20030,8 +20030,8 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <f>TRIMMEAN(Transposed_weekday!$B24:$U24, 0.4)</f>
-        <v>7.25</v>
+        <f>HARMEAN(Transposed_weekday!$B24:$U24)</f>
+        <v>6.2844098294615289</v>
       </c>
       <c r="C24">
         <f>VAR(Transposed_weekday!$B24:$U24)</f>
@@ -20043,8 +20043,8 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <f>TRIMMEAN(Transposed_weekday!$B25:$U25, 0.4)</f>
-        <v>7.666666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B25:$U25)</f>
+        <v>6.7786662754016564</v>
       </c>
       <c r="C25">
         <f>VAR(Transposed_weekday!$B25:$U25)</f>
@@ -20056,8 +20056,8 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <f>TRIMMEAN(Transposed_weekday!$B26:$U26, 0.4)</f>
-        <v>8.3333333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B26:$U26)</f>
+        <v>7.6850568339340182</v>
       </c>
       <c r="C26">
         <f>VAR(Transposed_weekday!$B26:$U26)</f>
@@ -20069,8 +20069,8 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <f>TRIMMEAN(Transposed_weekday!$B27:$U27, 0.4)</f>
-        <v>7.916666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B27:$U27)</f>
+        <v>7.6211423465530288</v>
       </c>
       <c r="C27">
         <f>VAR(Transposed_weekday!$B27:$U27)</f>
@@ -20082,8 +20082,8 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <f>TRIMMEAN(Transposed_weekday!$B28:$U28, 0.4)</f>
-        <v>8</v>
+        <f>HARMEAN(Transposed_weekday!$B28:$U28)</f>
+        <v>7.2515140020666298</v>
       </c>
       <c r="C28">
         <f>VAR(Transposed_weekday!$B28:$U28)</f>
@@ -20095,8 +20095,8 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <f>TRIMMEAN(Transposed_weekday!$B29:$U29, 0.4)</f>
-        <v>8.1666666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B29:$U29)</f>
+        <v>7.5719085470785865</v>
       </c>
       <c r="C29">
         <f>VAR(Transposed_weekday!$B29:$U29)</f>
@@ -20108,8 +20108,8 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <f>TRIMMEAN(Transposed_weekday!$B30:$U30, 0.4)</f>
-        <v>4.166666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B30:$U30)</f>
+        <v>3.7433155080213907</v>
       </c>
       <c r="C30">
         <f>VAR(Transposed_weekday!$B30:$U30)</f>
@@ -20121,8 +20121,8 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <f>TRIMMEAN(Transposed_weekday!$B31:$U31, 0.4)</f>
-        <v>3.5</v>
+        <f>HARMEAN(Transposed_weekday!$B31:$U31)</f>
+        <v>3.3404029692470836</v>
       </c>
       <c r="C31">
         <f>VAR(Transposed_weekday!$B31:$U31)</f>
@@ -20134,8 +20134,8 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <f>TRIMMEAN(Transposed_weekday!$B32:$U32, 0.4)</f>
-        <v>8.3333333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B32:$U32)</f>
+        <v>7.3843203068808432</v>
       </c>
       <c r="C32">
         <f>VAR(Transposed_weekday!$B32:$U32)</f>
@@ -20147,8 +20147,8 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <f>TRIMMEAN(Transposed_weekday!$B33:$U33, 0.4)</f>
-        <v>7.583333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B33:$U33)</f>
+        <v>6.6046147628791907</v>
       </c>
       <c r="C33">
         <f>VAR(Transposed_weekday!$B33:$U33)</f>
@@ -20160,8 +20160,8 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <f>TRIMMEAN(Transposed_weekday!$B34:$U34, 0.4)</f>
-        <v>8</v>
+        <f>HARMEAN(Transposed_weekday!$B34:$U34)</f>
+        <v>7.5650892418536104</v>
       </c>
       <c r="C34">
         <f>VAR(Transposed_weekday!$B34:$U34)</f>
@@ -20173,8 +20173,8 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <f>TRIMMEAN(Transposed_weekday!$B35:$U35, 0.4)</f>
-        <v>8.4166666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B35:$U35)</f>
+        <v>7.6434904339710679</v>
       </c>
       <c r="C35">
         <f>VAR(Transposed_weekday!$B35:$U35)</f>
@@ -20186,8 +20186,8 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <f>TRIMMEAN(Transposed_weekday!$B36:$U36, 0.4)</f>
-        <v>7.416666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B36:$U36)</f>
+        <v>6.4339429950793807</v>
       </c>
       <c r="C36">
         <f>VAR(Transposed_weekday!$B36:$U36)</f>
@@ -20199,8 +20199,8 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <f>TRIMMEAN(Transposed_weekday!$B37:$U37, 0.4)</f>
-        <v>7.166666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B37:$U37)</f>
+        <v>7.0865235897894756</v>
       </c>
       <c r="C37">
         <f>VAR(Transposed_weekday!$B37:$U37)</f>
@@ -20212,8 +20212,8 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <f>TRIMMEAN(Transposed_weekday!$B38:$U38, 0.4)</f>
-        <v>7.916666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B38:$U38)</f>
+        <v>7.3125370968805656</v>
       </c>
       <c r="C38">
         <f>VAR(Transposed_weekday!$B38:$U38)</f>
@@ -20225,8 +20225,8 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <f>TRIMMEAN(Transposed_weekday!$B39:$U39, 0.4)</f>
-        <v>7.5</v>
+        <f>HARMEAN(Transposed_weekday!$B39:$U39)</f>
+        <v>7.0934145374054784</v>
       </c>
       <c r="C39">
         <f>VAR(Transposed_weekday!$B39:$U39)</f>
@@ -20238,8 +20238,8 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <f>TRIMMEAN(Transposed_weekday!$B40:$U40, 0.4)</f>
-        <v>7.666666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B40:$U40)</f>
+        <v>6.93251303597554</v>
       </c>
       <c r="C40">
         <f>VAR(Transposed_weekday!$B40:$U40)</f>
@@ -20251,8 +20251,8 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <f>TRIMMEAN(Transposed_weekday!$B41:$U41, 0.4)</f>
-        <v>6.75</v>
+        <f>HARMEAN(Transposed_weekday!$B41:$U41)</f>
+        <v>6.5779710256038157</v>
       </c>
       <c r="C41">
         <f>VAR(Transposed_weekday!$B41:$U41)</f>
@@ -20264,8 +20264,8 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <f>TRIMMEAN(Transposed_weekday!$B42:$U42, 0.4)</f>
-        <v>8.5</v>
+        <f>HARMEAN(Transposed_weekday!$B42:$U42)</f>
+        <v>8.2352564776430466</v>
       </c>
       <c r="C42">
         <f>VAR(Transposed_weekday!$B42:$U42)</f>
@@ -20277,8 +20277,8 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <f>TRIMMEAN(Transposed_weekday!$B43:$U43, 0.4)</f>
-        <v>8.9166666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B43:$U43)</f>
+        <v>7.5490907719718319</v>
       </c>
       <c r="C43">
         <f>VAR(Transposed_weekday!$B43:$U43)</f>
@@ -20290,8 +20290,8 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <f>TRIMMEAN(Transposed_weekday!$B44:$U44, 0.4)</f>
-        <v>8</v>
+        <f>HARMEAN(Transposed_weekday!$B44:$U44)</f>
+        <v>7.6593628250117414</v>
       </c>
       <c r="C44">
         <f>VAR(Transposed_weekday!$B44:$U44)</f>
@@ -20303,8 +20303,8 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <f>TRIMMEAN(Transposed_weekday!$B45:$U45, 0.4)</f>
-        <v>8.3333333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B45:$U45)</f>
+        <v>7.9923527493950735</v>
       </c>
       <c r="C45">
         <f>VAR(Transposed_weekday!$B45:$U45)</f>
@@ -20316,8 +20316,8 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <f>TRIMMEAN(Transposed_weekday!$B46:$U46, 0.4)</f>
-        <v>7.166666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B46:$U46)</f>
+        <v>6.6446934739617669</v>
       </c>
       <c r="C46">
         <f>VAR(Transposed_weekday!$B46:$U46)</f>
@@ -20329,8 +20329,8 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <f>TRIMMEAN(Transposed_weekday!$B47:$U47, 0.4)</f>
-        <v>6.416666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B47:$U47)</f>
+        <v>6.385529252390187</v>
       </c>
       <c r="C47">
         <f>VAR(Transposed_weekday!$B47:$U47)</f>
@@ -20342,8 +20342,8 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <f>TRIMMEAN(Transposed_weekday!$B48:$U48, 0.4)</f>
-        <v>8.6666666666666661</v>
+        <f>HARMEAN(Transposed_weekday!$B48:$U48)</f>
+        <v>8.0664639380756302</v>
       </c>
       <c r="C48">
         <f>VAR(Transposed_weekday!$B48:$U48)</f>
@@ -20355,8 +20355,8 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <f>TRIMMEAN(Transposed_weekday!$B49:$U49, 0.4)</f>
-        <v>8.0833333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B49:$U49)</f>
+        <v>7.1701090260084603</v>
       </c>
       <c r="C49">
         <f>VAR(Transposed_weekday!$B49:$U49)</f>
@@ -20368,8 +20368,8 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <f>TRIMMEAN(Transposed_weekday!$B50:$U50, 0.4)</f>
-        <v>8.0833333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B50:$U50)</f>
+        <v>7.0588235294117636</v>
       </c>
       <c r="C50">
         <f>VAR(Transposed_weekday!$B50:$U50)</f>
@@ -20381,8 +20381,8 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <f>TRIMMEAN(Transposed_weekday!$B51:$U51, 0.4)</f>
-        <v>7.5</v>
+        <f>HARMEAN(Transposed_weekday!$B51:$U51)</f>
+        <v>7.0589756297269926</v>
       </c>
       <c r="C51">
         <f>VAR(Transposed_weekday!$B51:$U51)</f>
@@ -20394,8 +20394,8 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <f>TRIMMEAN(Transposed_weekday!$B52:$U52, 0.4)</f>
-        <v>7.333333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B52:$U52)</f>
+        <v>6.8851603929409704</v>
       </c>
       <c r="C52">
         <f>VAR(Transposed_weekday!$B52:$U52)</f>
@@ -20407,8 +20407,8 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <f>TRIMMEAN(Transposed_weekday!$B53:$U53, 0.4)</f>
-        <v>7.916666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B53:$U53)</f>
+        <v>7.3244200179675509</v>
       </c>
       <c r="C53">
         <f>VAR(Transposed_weekday!$B53:$U53)</f>
@@ -20420,8 +20420,8 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <f>TRIMMEAN(Transposed_weekday!$B54:$U54, 0.4)</f>
-        <v>8.75</v>
+        <f>HARMEAN(Transposed_weekday!$B54:$U54)</f>
+        <v>8.5133425547823762</v>
       </c>
       <c r="C54">
         <f>VAR(Transposed_weekday!$B54:$U54)</f>
@@ -20433,8 +20433,8 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <f>TRIMMEAN(Transposed_weekday!$B55:$U55, 0.4)</f>
-        <v>9.0833333333333339</v>
+        <f>HARMEAN(Transposed_weekday!$B55:$U55)</f>
+        <v>8.6169503035636144</v>
       </c>
       <c r="C55">
         <f>VAR(Transposed_weekday!$B55:$U55)</f>
@@ -20446,8 +20446,8 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <f>TRIMMEAN(Transposed_weekday!$B56:$U56, 0.4)</f>
-        <v>7.833333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B56:$U56)</f>
+        <v>7.5803343794963283</v>
       </c>
       <c r="C56">
         <f>VAR(Transposed_weekday!$B56:$U56)</f>
@@ -20459,8 +20459,8 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <f>TRIMMEAN(Transposed_weekday!$B57:$U57, 0.4)</f>
-        <v>4</v>
+        <f>HARMEAN(Transposed_weekday!$B57:$U57)</f>
+        <v>3.6418816388467374</v>
       </c>
       <c r="C57">
         <f>VAR(Transposed_weekday!$B57:$U57)</f>
@@ -20472,8 +20472,8 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <f>TRIMMEAN(Transposed_weekday!$B58:$U58, 0.4)</f>
-        <v>4.416666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B58:$U58)</f>
+        <v>4.0955631399317411</v>
       </c>
       <c r="C58">
         <f>VAR(Transposed_weekday!$B58:$U58)</f>
@@ -20485,8 +20485,8 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <f>TRIMMEAN(Transposed_weekday!$B59:$U59, 0.4)</f>
-        <v>4.583333333333333</v>
+        <f>HARMEAN(Transposed_weekday!$B59:$U59)</f>
+        <v>3.8382453735435234</v>
       </c>
       <c r="C59">
         <f>VAR(Transposed_weekday!$B59:$U59)</f>
@@ -20498,8 +20498,8 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <f>TRIMMEAN(Transposed_weekday!$B60:$U60, 0.4)</f>
-        <v>3.9166666666666665</v>
+        <f>HARMEAN(Transposed_weekday!$B60:$U60)</f>
+        <v>3.3426183844011139</v>
       </c>
       <c r="C60">
         <f>VAR(Transposed_weekday!$B60:$U60)</f>
@@ -20511,8 +20511,8 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <f>TRIMMEAN(Transposed_weekday!$B61:$U61, 0.4)</f>
-        <v>4.666666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B61:$U61)</f>
+        <v>4.2607151914785684</v>
       </c>
       <c r="C61">
         <f>VAR(Transposed_weekday!$B61:$U61)</f>
@@ -20524,8 +20524,8 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <f>TRIMMEAN(Transposed_weekday!$B62:$U62, 0.4)</f>
-        <v>4.5</v>
+        <f>HARMEAN(Transposed_weekday!$B62:$U62)</f>
+        <v>3.9279869067103101</v>
       </c>
       <c r="C62">
         <f>VAR(Transposed_weekday!$B62:$U62)</f>
@@ -20537,8 +20537,8 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <f>TRIMMEAN(Transposed_weekday!$B63:$U63, 0.4)</f>
-        <v>4.5</v>
+        <f>HARMEAN(Transposed_weekday!$B63:$U63)</f>
+        <v>4.2748091603053435</v>
       </c>
       <c r="C63">
         <f>VAR(Transposed_weekday!$B63:$U63)</f>
@@ -20550,8 +20550,8 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <f>TRIMMEAN(Transposed_weekday!$B64:$U64, 0.4)</f>
-        <v>5</v>
+        <f>HARMEAN(Transposed_weekday!$B64:$U64)</f>
+        <v>4.244567963617988</v>
       </c>
       <c r="C64">
         <f>VAR(Transposed_weekday!$B64:$U64)</f>
@@ -20563,8 +20563,8 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <f>TRIMMEAN(Transposed_weekday!$B65:$U65, 0.4)</f>
-        <v>4.916666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B65:$U65)</f>
+        <v>4.2467138523761374</v>
       </c>
       <c r="C65">
         <f>VAR(Transposed_weekday!$B65:$U65)</f>
@@ -20576,8 +20576,8 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <f>TRIMMEAN(Transposed_weekday!$B66:$U66, 0.4)</f>
-        <v>4.166666666666667</v>
+        <f>HARMEAN(Transposed_weekday!$B66:$U66)</f>
+        <v>3.7533512064343157</v>
       </c>
       <c r="C66">
         <f>VAR(Transposed_weekday!$B66:$U66)</f>
